--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_202.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_202.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,544 +488,618 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1534526854219949</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2701149425287356</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.953211)]</t>
+          <t>[('0:00:28.640000', '0:01:05.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07061307475758523</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>isophonics_33</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1071428571428571</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.44, 24.06)]</t>
+          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
+          <t>[('0:00:12.852267', '0:00:15.522562')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:03:08.260000', '0:03:12.260000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1138310893512852</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(89.74, 96.12), (39.04, 46.1)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:36.752312', '0:01:39.387777'), ('0:00:24.387324', '0:00:27.452358')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
-        </is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06853146853146853</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.146, 9.474)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:47.250000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:09.140000', '0:00:16.640000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1231060606060606</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'A/2', 'A/b3', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1202898550724638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(62.891179, 66.21244)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(22.94, 30.25)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:24.180000', '0:00:30.020000'), ('0:04:10.300000', '0:04:15.380000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:02.860000', '0:00:07.500000'), ('0:00:19.200000', '0:00:21.840000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:min', 'Db', 'Ab']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4115853658536585</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'C', 'G']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.350952, 28.787505)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.999342, 15.409591)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1792207792207792</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (46.75, 47.53)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04), (20.56, 23.94)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.96, 13.12)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(15.6, 24.08)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2407407407407407</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'G', 'D'], ['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D', 'A'], ['D/5', 'A', 'D', 'A']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.399, 14.292), (3.294, 7.605)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(34.290634, 43.926916), (27.963197, 36.229501)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3541666666666666</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07375643224699829</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G/5', 'D', 'D'], ['D', 'D', 'G/5']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C'], ['C', 'C', 'F']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.758934, 43.938526), (12.707687, 24.062244)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.61, 38.9), (36.0, 37.28)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:29.220000', '0:01:03.280000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['G', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E', 'A:min', 'A:min/b3']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.42, 26.04), (12.3, 17.76)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564), (53.795396, 59.623605)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1029,84 +1108,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(73.74, 83.38), (72.64, 79.22)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (19.14, 22.24)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(39.3, 45.38), (13.98, 21.5), (79.42, 86.02), (37.54, 42.72), (27.36, 34.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.02, 43.66), (15.06, 20.56), (26.96, 30.84), (46.12, 48.3), (10.16, 13.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
